--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2008.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2008.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>42099.690000000002</t>
+          <t>42099.69</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>459.43000000000001</t>
+          <t>459.43</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>90150.809999999998</t>
+          <t>90150.81</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>12443.780000000001</t>
+          <t>12443.78</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>87775.740000000005</t>
+          <t>87775.74</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>162.75999999999999</t>
+          <t>162.76</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>410504.07000000001</t>
+          <t>410504.07</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>202.53999999999999</t>
+          <t>202.54</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>5610.5699999999997</t>
+          <t>5610.57</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>700.05999999999995</t>
+          <t>700.06</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>407.25999999999999</t>
+          <t>407.26</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>1955.3800000000001</t>
+          <t>1955.38</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>27972.540000000001</t>
+          <t>27972.54</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>9723.7700000000004</t>
+          <t>9723.77</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>51056.220000000001</t>
+          <t>51056.22</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>8766.4899999999998</t>
+          <t>8766.49</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>3628.6999999999998</t>
+          <t>3628.7</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>37945.199999999997</t>
+          <t>37945.2</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>7929.0100000000002</t>
+          <t>7929.01</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>34317.739999999998</t>
+          <t>34317.74</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>435.80000000000001</t>
+          <t>435.8</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>528.82000000000005</t>
+          <t>528.82</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>69909.779999999999</t>
+          <t>69909.78</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>963.95000000000005</t>
+          <t>963.95</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>9979.8299999999999</t>
+          <t>9979.83</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>238213.35999999999</t>
+          <t>238213.36</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>11417.790000000001</t>
+          <t>11417.79</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>8567.3500000000004</t>
+          <t>8567.35</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>57757.879999999997</t>
+          <t>57757.88</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>34576.839999999997</t>
+          <t>34576.84</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>5076.4099999999999</t>
+          <t>5076.41</t>
         </is>
       </c>
       <c r="E99" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>16380.530000000001</t>
+          <t>16380.53</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>36368.629999999997</t>
+          <t>36368.63</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>535.75999999999999</t>
+          <t>535.76</t>
         </is>
       </c>
       <c r="E105" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>540.11000000000001</t>
+          <t>540.11</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>9193.7000000000007</t>
+          <t>9193.7</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>23214.009999999998</t>
+          <t>23214.01</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>718277.10999999999</t>
+          <t>718277.11</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>315247.89000000001</t>
+          <t>315247.89</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>9976.1499999999996</t>
+          <t>9976.15</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>16349.450000000001</t>
+          <t>16349.45</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D148" s="0" t="inlineStr">
         <is>
-          <t>64.140000000000001</t>
+          <t>64.14</t>
         </is>
       </c>
       <c r="E148" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>4929793.1500000004</t>
+          <t>4929793.15</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>2829598.4100000001</t>
+          <t>2829598.41</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>1794802.1699999999</t>
+          <t>1794802.17</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>43641.830000000002</t>
+          <t>43641.83</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>6866.6700000000001</t>
+          <t>6866.67</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>32208.580000000002</t>
+          <t>32208.58</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>1400315.5900000001</t>
+          <t>1400315.59</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3199533.3999999999</t>
+          <t>3199533.4</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2243110.3900000001</t>
+          <t>2243110.39</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>522031.41999999998</t>
+          <t>522031.42</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>2786060.2200000002</t>
+          <t>2786060.22</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>46386.769999999997</t>
+          <t>46386.77</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>389223.14000000001</t>
+          <t>389223.14</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>44732.059999999998</t>
+          <t>44732.06</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>6213.1199999999999</t>
+          <t>6213.12</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>377518.02000000002</t>
+          <t>377518.02</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>75914.610000000001</t>
+          <t>75914.61</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>22165.099999999999</t>
+          <t>22165.1</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>978833.29000000004</t>
+          <t>978833.29</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>88219.860000000001</t>
+          <t>88219.86</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>42481.919999999998</t>
+          <t>42481.92</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>49844.529999999999</t>
+          <t>49844.53</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>32868.489999999998</t>
+          <t>32868.49</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>148230.85000000001</t>
+          <t>148230.85</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>421150.98999999999</t>
+          <t>421150.99</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>519327.03000000003</t>
+          <t>519327.03</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>64.609999999999999</t>
+          <t>64.61</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D202" s="0" t="inlineStr">
         <is>
-          <t>6.2800000000000002</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E202" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>20738.209999999999</t>
+          <t>20738.21</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>21.309999999999999</t>
+          <t>21.31</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>35661.589999999997</t>
+          <t>35661.59</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>5232.8100000000004</t>
+          <t>5232.81</t>
         </is>
       </c>
       <c r="E212" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>9461.3400000000001</t>
+          <t>9461.34</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>617.95000000000005</t>
+          <t>617.95</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>658129.01000000001</t>
+          <t>658129.01</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>29715.130000000001</t>
+          <t>29715.13</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>834019.80000000005</t>
+          <t>834019.8</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>371.00999999999999</t>
+          <t>371.01</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>50.240000000000002</t>
+          <t>50.24</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="D226" s="0" t="inlineStr">
         <is>
-          <t>33.369999999999997</t>
+          <t>33.37</t>
         </is>
       </c>
       <c r="E226" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>42.130000000000003</t>
+          <t>42.13</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>68698.970000000001</t>
+          <t>68698.97</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>13233.379999999999</t>
+          <t>13233.38</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>14.029999999999999</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>217.02000000000001</t>
+          <t>217.02</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>29191.400000000001</t>
+          <t>29191.4</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>51833.110000000001</t>
+          <t>51833.11</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>374881.15999999997</t>
+          <t>374881.16</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D241" s="0" t="inlineStr">
         <is>
-          <t>6.2300000000000004</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E241" s="0" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t>13407.110000000001</t>
+          <t>13407.11</t>
         </is>
       </c>
       <c r="E242" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>433.82999999999998</t>
+          <t>433.83</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>95.640000000000001</t>
+          <t>95.64</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
-          <t>99.060000000000002</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="E246" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>2893.1399999999999</t>
+          <t>2893.14</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>2927.8099999999999</t>
+          <t>2927.81</t>
         </is>
       </c>
       <c r="E249" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>290557.59000000003</t>
+          <t>290557.59</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="D255" s="0" t="inlineStr">
         <is>
-          <t>850.35000000000002</t>
+          <t>850.35</t>
         </is>
       </c>
       <c r="E255" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>1269400.3100000001</t>
+          <t>1269400.31</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>94665.509999999995</t>
+          <t>94665.51</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>18403.380000000001</t>
+          <t>18403.38</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>2795.6900000000001</t>
+          <t>2795.69</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
-          <t>43693.400000000001</t>
+          <t>43693.4</t>
         </is>
       </c>
       <c r="E262" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>1740.9400000000001</t>
+          <t>1740.94</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="D264" s="0" t="inlineStr">
         <is>
-          <t>37.479999999999997</t>
+          <t>37.48</t>
         </is>
       </c>
       <c r="E264" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>26.719999999999999</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>3.3399999999999999</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>2.2200000000000002</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>306.33999999999997</t>
+          <t>306.34</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>292.29000000000002</t>
+          <t>292.29</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>325676.26000000001</t>
+          <t>325676.26</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>28495.540000000001</t>
+          <t>28495.54</t>
         </is>
       </c>
       <c r="E292" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>17.800000000000001</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="D296" s="0" t="inlineStr">
         <is>
-          <t>35854.160000000003</t>
+          <t>35854.16</t>
         </is>
       </c>
       <c r="E296" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>127214.57000000001</t>
+          <t>127214.57</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>14893.379999999999</t>
+          <t>14893.38</t>
         </is>
       </c>
       <c r="E298" s="0" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>8050.5500000000002</t>
+          <t>8050.55</t>
         </is>
       </c>
       <c r="E299" s="0" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D300" s="0" t="inlineStr">
         <is>
-          <t>3498.8499999999999</t>
+          <t>3498.85</t>
         </is>
       </c>
       <c r="E300" s="0" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
-          <t>6704.8199999999997</t>
+          <t>6704.82</t>
         </is>
       </c>
       <c r="E301" s="0" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D303" s="0" t="inlineStr">
         <is>
-          <t>31631.619999999999</t>
+          <t>31631.62</t>
         </is>
       </c>
       <c r="E303" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>1056258.9399999999</t>
+          <t>1056258.94</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>159378.45000000001</t>
+          <t>159378.45</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D329" s="0" t="inlineStr">
         <is>
-          <t>3820623.4199999999</t>
+          <t>3820623.42</t>
         </is>
       </c>
       <c r="E329" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>30098647.559999999</t>
+          <t>30098647.56</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
-          <t>27545.540000000001</t>
+          <t>27545.54</t>
         </is>
       </c>
       <c r="E332" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>261028.95999999999</t>
+          <t>261028.96</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="D352" s="0" t="inlineStr">
         <is>
-          <t>36.159999999999997</t>
+          <t>36.16</t>
         </is>
       </c>
       <c r="E352" s="0" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D364" s="0" t="inlineStr">
         <is>
-          <t>36.159999999999997</t>
+          <t>36.16</t>
         </is>
       </c>
       <c r="E364" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>43229.050000000003</t>
+          <t>43229.05</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>2426.4000000000001</t>
+          <t>2426.4</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>85452.110000000001</t>
+          <t>85452.11</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>20328.990000000002</t>
+          <t>20328.99</t>
         </is>
       </c>
       <c r="E374" s="0" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="D375" s="0" t="inlineStr">
         <is>
-          <t>36.159999999999997</t>
+          <t>36.16</t>
         </is>
       </c>
       <c r="E375" s="0" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="D381" s="0" t="inlineStr">
         <is>
-          <t>36.159999999999997</t>
+          <t>36.16</t>
         </is>
       </c>
       <c r="E381" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>179232.32000000001</t>
+          <t>179232.32</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="D416" s="0" t="inlineStr">
         <is>
-          <t>0.10000000000000001</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E416" s="0" t="inlineStr">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="D439" s="0" t="inlineStr">
         <is>
-          <t>328.13999999999999</t>
+          <t>328.14</t>
         </is>
       </c>
       <c r="E439" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>12071.469999999999</t>
+          <t>12071.47</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="D454" s="0" t="inlineStr">
         <is>
-          <t>266.72000000000003</t>
+          <t>266.72</t>
         </is>
       </c>
       <c r="E454" s="0" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="D462" s="0" t="inlineStr">
         <is>
-          <t>1173.8800000000001</t>
+          <t>1173.88</t>
         </is>
       </c>
       <c r="E462" s="0" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>7834.2200000000003</t>
+          <t>7834.22</t>
         </is>
       </c>
       <c r="E463" s="0" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="D487" s="0" t="inlineStr">
         <is>
-          <t>121.34999999999999</t>
+          <t>121.35</t>
         </is>
       </c>
       <c r="E487" s="0" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D505" s="0" t="inlineStr">
         <is>
-          <t>186318.98000000001</t>
+          <t>186318.98</t>
         </is>
       </c>
       <c r="E505" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>288734.58000000002</t>
+          <t>288734.58</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>3988.9299999999998</t>
+          <t>3988.93</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>1473.1800000000001</t>
+          <t>1473.18</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D516" s="0" t="inlineStr">
         <is>
-          <t>632.28999999999996</t>
+          <t>632.29</t>
         </is>
       </c>
       <c r="E516" s="0" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="D520" s="0" t="inlineStr">
         <is>
-          <t>586.28999999999996</t>
+          <t>586.29</t>
         </is>
       </c>
       <c r="E520" s="0" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D521" s="0" t="inlineStr">
         <is>
-          <t>834.22000000000003</t>
+          <t>834.22</t>
         </is>
       </c>
       <c r="E521" s="0" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="D522" s="0" t="inlineStr">
         <is>
-          <t>1206.3699999999999</t>
+          <t>1206.37</t>
         </is>
       </c>
       <c r="E522" s="0" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>51623.279999999999</t>
+          <t>51623.28</t>
         </is>
       </c>
       <c r="E531" s="0" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="D539" s="0" t="inlineStr">
         <is>
-          <t>533.59000000000003</t>
+          <t>533.59</t>
         </is>
       </c>
       <c r="E539" s="0" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="D546" s="0" t="inlineStr">
         <is>
-          <t>400.94999999999999</t>
+          <t>400.95</t>
         </is>
       </c>
       <c r="E546" s="0" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="D548" s="0" t="inlineStr">
         <is>
-          <t>83.620000000000005</t>
+          <t>83.62</t>
         </is>
       </c>
       <c r="E548" s="0" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D550" s="0" t="inlineStr">
         <is>
-          <t>4573.5600000000004</t>
+          <t>4573.56</t>
         </is>
       </c>
       <c r="E550" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>576669.93000000005</t>
+          <t>576669.93</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="D577" s="0" t="inlineStr">
         <is>
-          <t>349.52999999999997</t>
+          <t>349.53</t>
         </is>
       </c>
       <c r="E577" s="0" t="inlineStr">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="D578" s="0" t="inlineStr">
         <is>
-          <t>4086.5300000000002</t>
+          <t>4086.53</t>
         </is>
       </c>
       <c r="E578" s="0" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="D591" s="0" t="inlineStr">
         <is>
-          <t>1538.8699999999999</t>
+          <t>1538.87</t>
         </is>
       </c>
       <c r="E591" s="0" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="D592" s="0" t="inlineStr">
         <is>
-          <t>8546.9099999999999</t>
+          <t>8546.91</t>
         </is>
       </c>
       <c r="E592" s="0" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="D593" s="0" t="inlineStr">
         <is>
-          <t>46635.669999999998</t>
+          <t>46635.67</t>
         </is>
       </c>
       <c r="E593" s="0" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D610" s="0" t="inlineStr">
         <is>
-          <t>448.14999999999998</t>
+          <t>448.15</t>
         </is>
       </c>
       <c r="E610" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>624.29999999999995</t>
+          <t>624.3</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="D616" s="0" t="inlineStr">
         <is>
-          <t>78.260000000000005</t>
+          <t>78.26</t>
         </is>
       </c>
       <c r="E616" s="0" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="D628" s="0" t="inlineStr">
         <is>
-          <t>6326.6899999999996</t>
+          <t>6326.69</t>
         </is>
       </c>
       <c r="E628" s="0" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="D637" s="0" t="inlineStr">
         <is>
-          <t>14646.450000000001</t>
+          <t>14646.45</t>
         </is>
       </c>
       <c r="E637" s="0" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="D642" s="0" t="inlineStr">
         <is>
-          <t>283.68000000000001</t>
+          <t>283.68</t>
         </is>
       </c>
       <c r="E642" s="0" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="D650" s="0" t="inlineStr">
         <is>
-          <t>5826.1000000000004</t>
+          <t>5826.1</t>
         </is>
       </c>
       <c r="E650" s="0" t="inlineStr">
@@ -18073,7 +18073,7 @@
       </c>
       <c r="D656" s="0" t="inlineStr">
         <is>
-          <t>1558.3299999999999</t>
+          <t>1558.33</t>
         </is>
       </c>
       <c r="E656" s="0" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="D657" s="0" t="inlineStr">
         <is>
-          <t>141.18000000000001</t>
+          <t>141.18</t>
         </is>
       </c>
       <c r="E657" s="0" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="D677" s="0" t="inlineStr">
         <is>
-          <t>3953.9099999999999</t>
+          <t>3953.91</t>
         </is>
       </c>
       <c r="E677" s="0" t="inlineStr">
@@ -18667,7 +18667,7 @@
       </c>
       <c r="D678" s="0" t="inlineStr">
         <is>
-          <t>138.28999999999999</t>
+          <t>138.29</t>
         </is>
       </c>
       <c r="E678" s="0" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="D681" s="0" t="inlineStr">
         <is>
-          <t>1184.1700000000001</t>
+          <t>1184.17</t>
         </is>
       </c>
       <c r="E681" s="0" t="inlineStr">
@@ -18937,7 +18937,7 @@
       </c>
       <c r="D688" s="0" t="inlineStr">
         <is>
-          <t>4185.6700000000001</t>
+          <t>4185.67</t>
         </is>
       </c>
       <c r="E688" s="0" t="inlineStr">
